--- a/data/surge/surgeData316.xlsx
+++ b/data/surge/surgeData316.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/USGS/CH4_316_Mittry Lake/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1018" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7AFDAE79-D231-457A-8844-921AA3AA9D3A}"/>
+  <xr:revisionPtr revIDLastSave="1019" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92160348-5467-46B2-B20A-E0965690062B}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="600" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6240" yWindow="2532" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1642,80 +1642,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BP17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.77734375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="18" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="8" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="11" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="10" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="14" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="62" max="64" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="65" max="66" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="62" max="66" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>54</v>
       </c>
@@ -1797,7 +1794,7 @@
       <c r="BO1" s="31"/>
       <c r="BP1" s="31"/>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -2003,7 +2000,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>166</v>
       </c>
@@ -2107,7 +2104,7 @@
         <v>0.47322916666666665</v>
       </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>166</v>
       </c>
@@ -2202,7 +2199,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>166</v>
       </c>
@@ -2309,7 +2306,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>166</v>
       </c>
@@ -2404,7 +2401,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>166</v>
       </c>
@@ -2499,7 +2496,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>166</v>
       </c>
@@ -2588,7 +2585,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>166</v>
       </c>
@@ -2677,7 +2674,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>166</v>
       </c>
@@ -2754,7 +2751,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>166</v>
       </c>
@@ -2849,7 +2846,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>166</v>
       </c>
@@ -2863,7 +2860,7 @@
         <v>32.818862000000003</v>
       </c>
       <c r="E12" s="27">
-        <v>114.66701999999999</v>
+        <v>114.46702000000001</v>
       </c>
       <c r="F12" t="s">
         <v>183</v>
@@ -2941,7 +2938,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>166</v>
       </c>
@@ -3030,7 +3027,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>166</v>
       </c>
@@ -3119,7 +3116,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>166</v>
       </c>
@@ -3208,7 +3205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>166</v>
       </c>
@@ -3297,7 +3294,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>166</v>
       </c>
@@ -3411,14 +3408,14 @@
       <selection activeCell="A68" sqref="A68:A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.7265625" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.77734375" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>135</v>
       </c>
@@ -3429,7 +3426,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3440,7 +3437,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3451,7 +3448,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -3462,7 +3459,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3473,7 +3470,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3484,7 +3481,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -3495,7 +3492,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -3506,7 +3503,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -3517,7 +3514,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3528,7 +3525,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -3539,7 +3536,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3550,7 +3547,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -3561,7 +3558,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3569,7 +3566,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -3580,7 +3577,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3588,7 +3585,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -3599,7 +3596,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3607,7 +3604,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -3618,7 +3615,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3629,7 +3626,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -3640,7 +3637,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -3651,7 +3648,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -3662,7 +3659,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3673,7 +3670,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3684,7 +3681,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3695,7 +3692,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3706,7 +3703,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3717,7 +3714,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3728,7 +3725,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>148</v>
       </c>
@@ -3739,7 +3736,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -3750,7 +3747,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -3758,7 +3755,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -3766,7 +3763,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -3774,7 +3771,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -3782,7 +3779,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>149</v>
       </c>
@@ -3790,7 +3787,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -3798,7 +3795,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>154</v>
       </c>
@@ -3806,7 +3803,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>139</v>
       </c>
@@ -3814,7 +3811,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>140</v>
       </c>
@@ -3822,7 +3819,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>141</v>
       </c>
@@ -3830,7 +3827,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>150</v>
       </c>
@@ -3838,7 +3835,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>142</v>
       </c>
@@ -3846,7 +3843,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -3857,7 +3854,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -3868,7 +3865,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -3879,7 +3876,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -3890,7 +3887,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -3901,7 +3898,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>151</v>
       </c>
@@ -3912,7 +3909,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -3923,7 +3920,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -3931,7 +3928,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -3939,7 +3936,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -3947,7 +3944,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -3955,7 +3952,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>152</v>
       </c>
@@ -3963,7 +3960,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -3971,7 +3968,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>143</v>
       </c>
@@ -3979,7 +3976,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>144</v>
       </c>
@@ -3987,7 +3984,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>145</v>
       </c>
@@ -3995,7 +3992,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>146</v>
       </c>
@@ -4003,7 +4000,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>153</v>
       </c>
@@ -4011,7 +4008,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>147</v>
       </c>
@@ -4019,7 +4016,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -4030,7 +4027,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>50</v>
       </c>
@@ -4041,7 +4038,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -4052,7 +4049,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>52</v>
       </c>
@@ -4063,7 +4060,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>53</v>
       </c>
@@ -4074,7 +4071,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>162</v>
       </c>
@@ -4085,7 +4082,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>164</v>
       </c>
@@ -4109,18 +4106,18 @@
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="25"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="25"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>59</v>
       </c>
@@ -4136,7 +4133,7 @@
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4170,7 +4167,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>166</v>
       </c>
@@ -4202,7 +4199,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>166</v>
       </c>
@@ -4234,7 +4231,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>166</v>
       </c>
@@ -4266,7 +4263,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>166</v>
       </c>
@@ -4298,7 +4295,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>166</v>
       </c>
@@ -4330,7 +4327,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>166</v>
       </c>
@@ -4379,14 +4376,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.54296875" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>135</v>
       </c>
@@ -4397,7 +4394,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4408,7 +4405,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4419,7 +4416,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>45</v>
       </c>
@@ -4430,7 +4427,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>46</v>
       </c>
@@ -4441,7 +4438,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>47</v>
       </c>
@@ -4452,7 +4449,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>48</v>
       </c>
@@ -4460,7 +4457,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>123</v>
       </c>
@@ -4471,7 +4468,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>124</v>
       </c>
@@ -4482,7 +4479,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>125</v>
       </c>
@@ -4493,7 +4490,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>158</v>
       </c>
@@ -4510,64 +4507,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d9110ddba8137efcfc9b628571238300">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bebf8e6f5f0ff6ff908ec6e1ee4006f7" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d40b3e6283001fb57e5088f84fb23d5e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aadbb8160917885bdc8cfb32badaafe9" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint.v3"/>
@@ -4612,6 +4553,7 @@
                 <xsd:element ref="ns6:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns6:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns6:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns6:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4930,6 +4872,11 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="44" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
     <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
@@ -5030,7 +4977,83 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{816C7508-C308-4A98-A3D3-B8203CFEABBC}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5039,26 +5062,7 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0F6EAC3-174C-41EC-8141-D2397C3B40E9}"/>
 </file>